--- a/assignment1/results/svm.xlsx
+++ b/assignment1/results/svm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,61 +555,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.87</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="F2" t="n">
-        <v>0.883495145631068</v>
+        <v>0.8932038834951457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8750000000000001</v>
+        <v>0.847926267281106</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.6781609195402298</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8372093023255814</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.6820809248554913</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8736842105263158</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8783068783068785</v>
+        <v>0.6373626373626374</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7767857142857143</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.7745098039215687</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8130841121495327</v>
+        <v>0.7523809523809524</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.944954128440367</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="R2" t="n">
-        <v>0.911504424778761</v>
+        <v>0.8849557522123894</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9279279279279279</v>
+        <v>0.8547008547008548</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8865979381443299</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.6568627450980392</v>
       </c>
       <c r="V2" t="n">
-        <v>0.864321608040201</v>
+        <v>0.7282608695652173</v>
       </c>
     </row>
     <row r="3">
@@ -627,61 +627,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8733333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E3" t="n">
-        <v>0.875</v>
+        <v>0.7815126050420168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.883495145631068</v>
+        <v>0.9029126213592233</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8792270531400966</v>
+        <v>0.8378378378378379</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8372093023255814</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8829787234042553</v>
+        <v>0.6256983240223464</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7767857142857143</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.7549019607843137</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8130841121495327</v>
+        <v>0.7403846153846154</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.944954128440367</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>0.911504424778761</v>
+        <v>0.8938053097345132</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9279279279279279</v>
+        <v>0.8487394957983193</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8072289156626506</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.6568627450980392</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8756218905472637</v>
+        <v>0.7243243243243243</v>
       </c>
     </row>
     <row r="4">
@@ -690,7 +690,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LinearSVM C = 1.5</t>
+          <t>SVC C=1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -699,61 +699,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.865</v>
+        <v>0.7766666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.89</v>
       </c>
       <c r="F4" t="n">
-        <v>0.883495145631068</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8750000000000001</v>
+        <v>0.8768472906403941</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8372093023255814</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.6823529411764705</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8631578947368421</v>
+        <v>0.7282608695652174</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8677248677248677</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7747747747747747</v>
+        <v>0.6587301587301587</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8137254901960784</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8075117370892019</v>
+        <v>0.7280701754385964</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9026548672566371</v>
+        <v>0.8584070796460177</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8686868686868687</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="V4" t="n">
-        <v>0.855721393034826</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="5">
@@ -762,7 +762,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SVC C=1</t>
+          <t>SVC C=0.5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -771,61 +771,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7283333333333334</v>
+        <v>0.7683333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.898876404494382</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7766990291262136</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.8656716417910448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5813953488372093</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7246376811594203</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7326732673267327</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7872340425531915</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7589743589743589</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4676616915422885</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9215686274509803</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6204620462046204</v>
+        <v>0.7341772151898734</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7433628318584071</v>
+        <v>0.8495575221238938</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8195121951219514</v>
+        <v>0.8533333333333332</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5392156862745098</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6586826347305389</v>
+        <v>0.7301587301587301</v>
       </c>
     </row>
     <row r="6">
@@ -834,7 +834,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SVC C=0.5</t>
+          <t>SVC C=1.5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -843,133 +843,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.66</v>
+        <v>0.7716666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.875</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6407766990291263</v>
+        <v>0.883495145631068</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.8792270531400966</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5116279069767442</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6534653465346535</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="M6" t="n">
-        <v>0.676923076923077</v>
+        <v>0.7032967032967034</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4026548672566372</v>
+        <v>0.6864406779661016</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8921568627450981</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5548780487804879</v>
+        <v>0.7363636363636364</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9010989010989011</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7256637168141593</v>
+        <v>0.8407079646017699</v>
       </c>
       <c r="S6" t="n">
-        <v>0.803921568627451</v>
+        <v>0.8520179372197311</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7580645161290323</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4607843137254902</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5731707317073171</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SVC C=1.5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bag of words</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8817204301075269</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7961165048543689</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.836734693877551</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9814814814814815</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.6162790697674418</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.757142857142857</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.7378640776699029</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8085106382978723</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.7715736040609138</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.6530612244897959</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.9247311827956989</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.7610619469026548</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.8349514563106796</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.8769230769230769</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.5588235294117647</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.6826347305389222</v>
+        <v>0.7628865979381443</v>
       </c>
     </row>
   </sheetData>
